--- a/tools/0_LJW_tools/kt_groups.xlsx
+++ b/tools/0_LJW_tools/kt_groups.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>1_1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,6 +501,50 @@
   </si>
   <si>
     <t>4_4_12</t>
+  </si>
+  <si>
+    <t>1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -828,14 +872,14 @@
   <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>156</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -875,8 +919,8 @@
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>157</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -916,8 +960,8 @@
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3</v>
+      <c r="A3" t="s">
+        <v>158</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -957,8 +1001,8 @@
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>4</v>
+      <c r="A4" t="s">
+        <v>159</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -998,8 +1042,8 @@
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5</v>
+      <c r="A5" t="s">
+        <v>160</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
@@ -1039,8 +1083,8 @@
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6</v>
+      <c r="A6" t="s">
+        <v>161</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -1080,8 +1124,8 @@
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>7</v>
+      <c r="A7" t="s">
+        <v>162</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -1193,8 +1237,8 @@
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>8</v>
+      <c r="A8" t="s">
+        <v>163</v>
       </c>
       <c r="B8" t="s">
         <v>108</v>
@@ -1240,8 +1284,8 @@
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>9</v>
+      <c r="A9" t="s">
+        <v>164</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -1275,8 +1319,8 @@
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10</v>
+      <c r="A10" t="s">
+        <v>165</v>
       </c>
       <c r="B10" t="s">
         <v>132</v>
@@ -1316,8 +1360,8 @@
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>11</v>
+      <c r="A11" t="s">
+        <v>166</v>
       </c>
       <c r="B11" t="s">
         <v>144</v>
